--- a/pelicanu/le_mestra.xlsx
+++ b/pelicanu/le_mestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\util\pelicanu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC3B4D-1CA5-40A8-966E-25CA56290912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0691D842-3B2D-473B-8265-A3C0BF16ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2634C549-ECA8-4C6C-A9A0-046785B20B91}"/>
+    <workbookView xWindow="20370" yWindow="-2670" windowWidth="19440" windowHeight="14880" xr2:uid="{2634C549-ECA8-4C6C-A9A0-046785B20B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipamentos" sheetId="1" r:id="rId1"/>
@@ -304,13 +304,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -322,25 +328,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB7DCA-295B-4D05-801B-2BC10BC0311B}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,45 +768,6 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -822,285 +783,285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F90CF51-0DB3-450A-86E2-09FE51ECBBF4}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C105" sqref="A90:C105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="28.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="28.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="6">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="8">
         <v>42</v>
       </c>
     </row>
@@ -1111,286 +1072,286 @@
       <c r="B34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="A44" s="11"/>
+      <c r="B44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="A48" s="11"/>
+      <c r="B48" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="7">
+      <c r="A52" s="11"/>
+      <c r="B52" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="7">
+      <c r="A56" s="11"/>
+      <c r="B56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="6">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="7">
+      <c r="A60" s="11"/>
+      <c r="B60" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="6">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="7">
+      <c r="A64" s="11"/>
+      <c r="B64" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="6">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="7">
+      <c r="A68" s="11"/>
+      <c r="B68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="8">
         <v>80</v>
       </c>
     </row>
@@ -1401,158 +1362,158 @@
       <c r="B70" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7">
+      <c r="A71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7">
+      <c r="A73" s="11"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7">
+      <c r="A75" s="11"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7">
+      <c r="A77" s="11"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7">
+      <c r="A81" s="11"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7">
+      <c r="A83" s="11"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7">
+      <c r="A85" s="11"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="11"/>
+      <c r="B86" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="7">
+      <c r="A87" s="11"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="8" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="13">
+      <c r="A89" s="15"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1563,318 +1524,320 @@
       <c r="B90" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7">
+      <c r="A91" s="11"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="8" t="s">
+      <c r="A92" s="11"/>
+      <c r="B92" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="7">
+      <c r="A93" s="11"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="8" t="s">
+      <c r="A94" s="11"/>
+      <c r="B94" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7">
+      <c r="A95" s="11"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="11"/>
+      <c r="B96" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7">
+      <c r="A97" s="11"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="11"/>
+      <c r="B98" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="7">
+      <c r="A99" s="11"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="11"/>
+      <c r="B100" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7">
+      <c r="A101" s="11"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="8" t="s">
+      <c r="A102" s="11"/>
+      <c r="B102" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7">
+      <c r="A103" s="11"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="8" t="s">
+      <c r="A104" s="11"/>
+      <c r="B104" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="13">
+      <c r="A105" s="15"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+      <c r="A106" s="11">
         <v>6</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="7">
+      <c r="A107" s="11"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="8" t="s">
+      <c r="A108" s="11"/>
+      <c r="B108" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7">
+      <c r="A109" s="11"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="8" t="s">
+      <c r="A110" s="11"/>
+      <c r="B110" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7">
+      <c r="A111" s="11"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="8" t="s">
+      <c r="A112" s="11"/>
+      <c r="B112" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="7">
+      <c r="A113" s="11"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
-      <c r="B114" s="8" t="s">
+      <c r="A114" s="11"/>
+      <c r="B114" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7">
+      <c r="A115" s="11"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="8" t="s">
+      <c r="A116" s="11"/>
+      <c r="B116" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7">
+      <c r="A117" s="11"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
-      <c r="B118" s="8" t="s">
+      <c r="A118" s="11"/>
+      <c r="B118" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7">
+      <c r="A119" s="11"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="8" t="s">
+      <c r="A120" s="11"/>
+      <c r="B120" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7">
+      <c r="A121" s="11"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="11"/>
+      <c r="B122" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7">
+      <c r="A123" s="11"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="8" t="s">
+      <c r="A124" s="11"/>
+      <c r="B124" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7">
+      <c r="A125" s="12"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="6">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="A106:A125"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A70:A89"/>
-    <mergeCell ref="A90:A105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="A34:A69"/>
     <mergeCell ref="B70:B71"/>
@@ -1891,33 +1854,31 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A70:A89"/>
+    <mergeCell ref="A90:A105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A106:A125"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B110:B111"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
@@ -1936,7 +1897,7 @@
           <x14:formula1>
             <xm:f>Equipamentos!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A16 A34 A70 A90 A106 A126:A1048576</xm:sqref>
+          <xm:sqref>A2 A126:A1048576 A106 A90 A70 A34 A16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1948,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71F3FA2-57B7-4B0A-B930-90A5DE539694}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048556" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pelicanu/le_mestra.xlsx
+++ b/pelicanu/le_mestra.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\util\pelicanu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\util\SE_Modelo_bis\_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0691D842-3B2D-473B-8265-A3C0BF16ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BF5119-E6C7-4604-9D99-A20267081EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2670" windowWidth="19440" windowHeight="14880" xr2:uid="{2634C549-ECA8-4C6C-A9A0-046785B20B91}"/>
+    <workbookView xWindow="20370" yWindow="-2670" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{2634C549-ECA8-4C6C-A9A0-046785B20B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipamentos" sheetId="1" r:id="rId1"/>
     <sheet name="Terminais" sheetId="2" r:id="rId2"/>
     <sheet name="Elementos" sheetId="3" r:id="rId3"/>
+    <sheet name="Regras" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
   <si>
     <t>Item</t>
   </si>
@@ -141,6 +142,147 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>ied</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>ALIM_CC</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Módulo</t>
+  </si>
+  <si>
+    <t>Fia Mod</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>DESCONHECIDO</t>
+  </si>
+  <si>
+    <t>RÉGUA</t>
+  </si>
+  <si>
+    <t>MINI DJ</t>
+  </si>
+  <si>
+    <t>CT TENSÃO</t>
+  </si>
+  <si>
+    <t>CT CORRENTE</t>
+  </si>
+  <si>
+    <t>CT TENSÃO+CORRENTE</t>
+  </si>
+  <si>
+    <t>CONTATO EXTERNO</t>
+  </si>
+  <si>
+    <t>RELÉ AUX</t>
+  </si>
+  <si>
+    <t>RELÉ TRIP</t>
+  </si>
+  <si>
+    <t>RELÉ BIEST CTRL</t>
+  </si>
+  <si>
+    <t>RELÉ BIEST BLOQ</t>
+  </si>
+  <si>
+    <t>IED</t>
+  </si>
+  <si>
+    <t>IED RELÉ PROT</t>
   </si>
 </sst>
 </file>
@@ -298,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -319,29 +461,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB7DCA-295B-4D05-801B-2BC10BC0311B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +927,56 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -781,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F90CF51-0DB3-450A-86E2-09FE51ECBBF4}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,9 +1000,10 @@
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="28.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -804,126 +1013,132 @@
       <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>2</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -931,15 +1146,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="6">
@@ -947,15 +1162,15 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="6">
@@ -963,15 +1178,15 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="6">
@@ -979,15 +1194,15 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="6">
@@ -995,15 +1210,15 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="6">
@@ -1011,15 +1226,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6">
@@ -1027,15 +1242,15 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="6">
@@ -1043,15 +1258,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="6">
@@ -1066,10 +1281,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="16">
         <v>3</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1077,15 +1292,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1093,15 +1308,15 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="6">
@@ -1109,15 +1324,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="6">
@@ -1125,15 +1340,15 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="6">
@@ -1141,15 +1356,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="6">
@@ -1157,15 +1372,15 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="6">
@@ -1173,15 +1388,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="6">
@@ -1189,15 +1404,15 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="6">
@@ -1205,15 +1420,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="6">
@@ -1221,15 +1436,15 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="6">
@@ -1237,15 +1452,15 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="6">
@@ -1253,15 +1468,15 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="6">
@@ -1269,15 +1484,15 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="6">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="6">
@@ -1285,15 +1500,15 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="6">
@@ -1301,15 +1516,15 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="6">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="17" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C64" s="6">
@@ -1317,15 +1532,15 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="17" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C66" s="6">
@@ -1333,15 +1548,15 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="6">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="6">
@@ -1356,10 +1571,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="16">
         <v>4</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C70" s="9">
@@ -1367,15 +1582,15 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="5">
@@ -1383,15 +1598,15 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="5">
@@ -1399,15 +1614,15 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="5">
@@ -1415,15 +1630,15 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="10"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="5">
@@ -1431,15 +1646,15 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="5">
@@ -1447,15 +1662,15 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="5">
@@ -1463,15 +1678,15 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="5">
@@ -1479,15 +1694,15 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="5">
@@ -1495,15 +1710,15 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="14"/>
+      <c r="B88" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="5">
@@ -1512,16 +1727,16 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
-      <c r="B89" s="13"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+      <c r="A90" s="16">
         <v>5</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="9">
@@ -1529,15 +1744,15 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="14"/>
+      <c r="B92" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="5">
@@ -1545,15 +1760,15 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="10"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="14"/>
+      <c r="B94" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="5">
@@ -1561,15 +1776,15 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="10"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="14"/>
+      <c r="B96" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="5">
@@ -1577,15 +1792,15 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="10"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="10" t="s">
+      <c r="A98" s="14"/>
+      <c r="B98" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="5">
@@ -1593,15 +1808,15 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="10"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="14"/>
+      <c r="B100" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="5">
@@ -1609,15 +1824,15 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="10"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="10" t="s">
+      <c r="A102" s="14"/>
+      <c r="B102" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="5">
@@ -1625,15 +1840,15 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="10"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="10" t="s">
+      <c r="A104" s="14"/>
+      <c r="B104" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="5">
@@ -1642,16 +1857,16 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
-      <c r="B105" s="13"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
+      <c r="A106" s="14">
         <v>6</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C106" s="5">
@@ -1659,15 +1874,15 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="10"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="14"/>
+      <c r="B108" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C108" s="5">
@@ -1675,15 +1890,15 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="10"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="14"/>
+      <c r="B110" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C110" s="5">
@@ -1691,153 +1906,452 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="10"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="14"/>
+      <c r="B112" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C112" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="10"/>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="10" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C114" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="10"/>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="10" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="10"/>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="10" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C118" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="10"/>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="10" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="10"/>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="10" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C122" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="10"/>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="10" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C124" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="10"/>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="6">
         <v>20</v>
       </c>
     </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
+        <v>7</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="B144" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="14"/>
+      <c r="B147" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="B148" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="14"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
+      <c r="B151" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D154" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
+  <mergeCells count="85">
+    <mergeCell ref="E126:E145"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="D126:D145"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A106:A125"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A70:A89"/>
+    <mergeCell ref="A90:A105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="A34:A69"/>
     <mergeCell ref="B70:B71"/>
@@ -1854,32 +2368,39 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A70:A89"/>
-    <mergeCell ref="A90:A105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="A106:A125"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A126:A154"/>
+    <mergeCell ref="D148:D154"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classificação: Público</oddFooter>
@@ -1891,13 +2412,13 @@
           <x14:formula1>
             <xm:f>Elementos!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B4 B10 B6 B8 B12 B14 B28 B16 B18 B24 B20 B22 B26 B30 B32 B34 B36 B52 B48 B38 B44 B40 B42 B46 B50 B68 B64 B54 B60 B56 B58 B62 B66 B70 B88 B72 B74 B76 B78 B80 B82 B84 B86 B90 B104 B92 B94 B96 B98 B100 B102 B126:B1048576 B106 B124 B108 B110 B112 B114 B116 B118 B120 B122</xm:sqref>
+          <xm:sqref>B2 B4 B10 B6 B8 B12 B14 B28 B16 B18 B24 B20 B22 B26 B30 B32 B34 B36 B52 B48 B38 B44 B40 B42 B46 B50 B68 B64 B54 B60 B56 B58 B62 B66 B70 B88 B72 B74 B76 B78 B80 B82 B84 B86 B90 B104 B92 B94 B96 B98 B100 B102 B122 B106 B124 B108 B110 B112 B114 B116 B118 B120 B126 B128 B144 B130 B134 B138 B142 B132 B136 B140 B146:B148 B155:B1048576 B153 B151</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA06DDBA-C752-4EE3-B842-C84E27038990}">
           <x14:formula1>
             <xm:f>Equipamentos!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A126:A1048576 A106 A90 A70 A34 A16</xm:sqref>
+          <xm:sqref>A2 A16 A34 A70 A90 A106 A126 A155:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1907,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71F3FA2-57B7-4B0A-B930-90A5DE539694}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,6 +2488,144 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07256AB6-B4DE-4BFF-84D2-2835868CCE40}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="23">
+        <f>Equipamentos!A5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="23">
+        <f>Equipamentos!A6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="23">
+        <f>Equipamentos!A7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="23">
+        <f>Equipamentos!A2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="23">
+        <f>Equipamentos!A3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="23">
+        <f>Equipamentos!A4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="23">
+        <f>Equipamentos!A4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
